--- a/biology/Histoire de la zoologie et de la botanique/James_Fairlie_Gemmill/James_Fairlie_Gemmill.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/James_Fairlie_Gemmill/James_Fairlie_Gemmill.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Fairlie Gemmill (1867-1926) est médecin, botaniste et auteur écossais. Il partage plusieurs affinités avec le poète Robert Burns.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Hillhead Farm près de Mauchline dans l'Ayrshire, il est le fils de Cuthbert Gemmill et de Jeanie Leiper. Après des études primaires à Mauchline, il étudie ensuite à la Kilmarnock Academy (en) et la médecine à l'Université de Glasgow d'où il termine son doctorat en 1990.
 Maître de conférences à l'Université de Glasgow en chirurgie et en embryologie jusqu'en 1916, il est remplacé par Thomas Walmsley (en).
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>VII. The development and certain point in the juvenile structure of the starfish Asterias van dyck, L. Philosophical Transactions of the Royal Society of Edinburgh. Series C, Containing Papers of a Biological Character, 215(303-334), 113-184.(1904)
 Turbellalia of the Scottish National Antarctic Expedition (1907)
